--- a/temp_doc/PESERTA UJIAN FIX ADMIN.xlsx
+++ b/temp_doc/PESERTA UJIAN FIX ADMIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.5/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96773C5-7B63-4741-B097-0965250C06E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5A8B93-C7D0-724E-AEBE-4F8EC035085F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{A7D75AB7-B047-3448-8A7B-4FE35F9227AE}"/>
   </bookViews>
